--- a/gmaps/planedata.xlsx
+++ b/gmaps/planedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17420" yWindow="5340" windowWidth="20540" windowHeight="14660" tabRatio="500"/>
+    <workbookView xWindow="3380" yWindow="6440" windowWidth="20540" windowHeight="14660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -287,8 +287,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -406,7 +414,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -460,6 +468,10 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -513,6 +525,10 @@
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -845,7 +861,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+      <selection activeCell="A16" sqref="A16:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
